--- a/analysis/steady_state/xlsx/improved_steady_state_017.xlsx
+++ b/analysis/steady_state/xlsx/improved_steady_state_017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wronek\Documents\1) Università\Magistrale\Anno 2022-2023\Semestre 2\PMCSN\Project\analysis\steady_state\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wronek\Documents\1 - Università\Magistrale\Anno 2022-2023\Semestre 2\PMCSN\Project\analysis\steady_state\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125F4321-E6B2-4FE9-ADC0-063A8205C890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BD6F3D0-E6BA-444C-A2BC-9D2C8A18556A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2415" windowWidth="28665" windowHeight="18465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base_steady_state_017" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="22">
   <si>
-    <t>Based on a simulation splitted into 200 batches and with 99.00% confidence</t>
-  </si>
-  <si>
     <t>NODE 1</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>consistency check</t>
+  </si>
+  <si>
+    <t>Based on a simulation splitted into 64 batches and with 95.00% confidence</t>
   </si>
 </sst>
 </file>
@@ -586,7 +586,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -603,16 +603,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -972,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F59" sqref="F59:G59"/>
     </sheetView>
   </sheetViews>
@@ -986,20 +983,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3">
         <v>0.8569</v>
@@ -1009,7 +1006,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3">
         <v>0.1431</v>
@@ -1019,122 +1016,122 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>0.52637500000000004</v>
+        <v>0.52689600000000003</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>1.6100000000000001E-4</v>
+        <v>5.398E-3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>2.797558</v>
+        <v>2.7945479999999998</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>3.7520000000000001E-3</v>
+        <v>0.121612</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.79799600000000004</v>
+        <v>0.79142400000000002</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" s="1">
-        <v>3.431E-3</v>
+        <v>0.109916</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>1.9995620000000001</v>
+        <v>2.002745</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>5.8600000000000004E-4</v>
+        <v>2.0379999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>5.3152660000000003</v>
+        <v>5.3084389999999999</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1">
-        <v>7.3280000000000003E-3</v>
+        <v>0.238816</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>1.51617</v>
+        <v>1.5061990000000001</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>6.5659999999999998E-3</v>
+        <v>0.21133099999999999</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>0.75981900000000002</v>
+        <v>0.76031000000000004</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1">
-        <v>2.6499999999999999E-4</v>
+        <v>8.5869999999999991E-3</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -1142,122 +1139,122 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>0.84747700000000004</v>
+        <v>0.85153100000000004</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>3.4200000000000002E-4</v>
+        <v>1.1527000000000001E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="1">
-        <v>3.5354950000000001</v>
+        <v>3.4595919999999998</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>2.663E-3</v>
+        <v>7.3816000000000007E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1">
-        <v>0.33539099999999999</v>
+        <v>0.27291900000000002</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>1.8389999999999999E-3</v>
+        <v>4.5394999999999998E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="1">
-        <v>3.2001040000000001</v>
+        <v>3.1864020000000002</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1">
-        <v>1.263E-3</v>
+        <v>3.8383E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" s="1">
-        <v>4.1721950000000003</v>
+        <v>4.0704310000000001</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" s="1">
-        <v>3.6310000000000001E-3</v>
+        <v>0.103662</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1">
-        <v>0.39579700000000001</v>
+        <v>0.32346900000000001</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" s="1">
-        <v>2.2130000000000001E-3</v>
+        <v>5.5544999999999997E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1">
-        <v>0.62939999999999996</v>
+        <v>0.624448</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1">
-        <v>3.0699999999999998E-4</v>
+        <v>9.8019999999999999E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="3">
         <v>0</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="3">
         <v>0</v>
@@ -1265,122 +1262,122 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1">
-        <v>1.3208580000000001</v>
+        <v>1.3168329999999999</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" s="1">
-        <v>6.3199999999999997E-4</v>
+        <v>2.4198000000000001E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>3.3887320000000001</v>
+        <v>3.4516490000000002</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="1">
-        <v>5.1879999999999999E-3</v>
+        <v>0.18615899999999999</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" s="1">
-        <v>0.88898299999999997</v>
+        <v>0.96634699999999996</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" s="1">
-        <v>4.444E-3</v>
+        <v>0.15928899999999999</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>2.499749</v>
+        <v>2.4853329999999998</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="1">
-        <v>1.2849999999999999E-3</v>
+        <v>4.3864E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" s="1">
-        <v>2.5658180000000002</v>
+        <v>2.651815</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" s="1">
-        <v>4.3350000000000003E-3</v>
+        <v>0.173707</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="1">
-        <v>0.67311299999999996</v>
+        <v>0.75382099999999996</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1">
-        <v>3.4640000000000001E-3</v>
+        <v>0.131247</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" s="1">
-        <v>0.63090199999999996</v>
+        <v>0.63266500000000003</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" s="1">
-        <v>4.1399999999999998E-4</v>
+        <v>1.8284000000000002E-2</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B33" s="3">
         <v>0</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" s="3">
         <v>0</v>
@@ -1388,357 +1385,357 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="6"/>
+      <c r="F35" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B36" s="1">
-        <v>0.37040499999999998</v>
+        <v>0.37057499999999999</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" s="1">
-        <v>1.02E-4</v>
-      </c>
-      <c r="F36" s="8">
+        <v>3.2539999999999999E-3</v>
+      </c>
+      <c r="F36" s="7">
         <f>1/(1/B37+1/B38)</f>
-        <v>0.37040496933213973</v>
-      </c>
-      <c r="G36" s="8"/>
+        <v>0.37033285849197528</v>
+      </c>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="1">
-        <v>0.43225999999999998</v>
+        <v>0.43201499999999998</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1">
-        <v>1.3300000000000001E-4</v>
+        <v>4.4209999999999996E-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="1">
-        <v>2.588492</v>
+        <v>2.5937709999999998</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" s="1">
-        <v>1.825E-3</v>
+        <v>5.7357999999999999E-2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="1">
-        <v>3.2693639999999999</v>
+        <v>3.0098259999999999</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="1">
-        <v>1.0376E-2</v>
-      </c>
-      <c r="F39" s="8">
+        <v>0.188996</v>
+      </c>
+      <c r="F39" s="7">
         <f>B2*B40+B3*B41</f>
-        <v>3.2693940144</v>
-      </c>
-      <c r="G39" s="8"/>
+        <v>3.0256739427000001</v>
+      </c>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B40" s="1">
-        <v>2.2731569999999999</v>
+        <v>2.213994</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" s="1">
-        <v>3.0609999999999999E-3</v>
+        <v>7.2401999999999994E-2</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B41" s="1">
-        <v>9.2349809999999994</v>
+        <v>7.8861109999999996</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" s="1">
-        <v>5.7327999999999997E-2</v>
+        <v>1.0314190000000001</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" s="1">
-        <v>1.969309</v>
+        <v>1.7238059999999999</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" s="1">
-        <v>1.022E-2</v>
-      </c>
-      <c r="F42" s="8">
+        <v>0.183611</v>
+      </c>
+      <c r="F42" s="7">
         <f>B2*B43+B3*B44</f>
-        <v>1.9693389124</v>
-      </c>
-      <c r="G42" s="8"/>
+        <v>1.7393528090000001</v>
+      </c>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="7">
-        <v>0.97316199999999997</v>
+        <v>16</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0.92362699999999998</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="7">
-        <v>2.8679999999999999E-3</v>
+        <v>4</v>
+      </c>
+      <c r="D43" s="1">
+        <v>6.5861000000000003E-2</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="1">
-        <v>7.9345660000000002</v>
+        <v>6.6240170000000003</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" s="1">
-        <v>5.7230000000000003E-2</v>
+        <v>1.0249250000000001</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B45" s="1">
-        <v>1.300054</v>
+        <v>1.2859259999999999</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" s="1">
-        <v>3.2200000000000002E-4</v>
-      </c>
-      <c r="F45" s="8">
+        <v>1.1384E-2</v>
+      </c>
+      <c r="F45" s="7">
         <f>B2*B46+B3*B47</f>
-        <v>1.300055102</v>
-      </c>
-      <c r="G45" s="8"/>
+        <v>1.2862222887000001</v>
+      </c>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" s="1">
-        <v>1.299995</v>
+        <v>1.2902610000000001</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" s="1">
-        <v>3.3700000000000001E-4</v>
+        <v>1.1738E-2</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47" s="1">
-        <v>1.3004150000000001</v>
+        <v>1.262038</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" s="1">
-        <v>9.1799999999999998E-4</v>
+        <v>2.9641000000000001E-2</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48" s="1">
-        <v>8.82728</v>
+        <v>8.1235300000000006</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" s="1">
-        <v>2.8011999999999999E-2</v>
-      </c>
-      <c r="F48" s="8">
+        <v>0.51668000000000003</v>
+      </c>
+      <c r="F48" s="7">
         <f>B49+B50</f>
-        <v>8.8272809999999993</v>
-      </c>
-      <c r="G48" s="8"/>
+        <v>8.1235299999999988</v>
+      </c>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B49" s="1">
-        <v>5.2592639999999999</v>
+        <v>5.1239309999999998</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" s="1">
-        <v>7.1970000000000003E-3</v>
+        <v>0.176758</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B50" s="1">
-        <v>3.5680170000000002</v>
+        <v>2.9995989999999999</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" s="1">
-        <v>2.2100999999999999E-2</v>
+        <v>0.38123099999999999</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" s="1">
-        <v>5.3171340000000002</v>
+        <v>4.6535529999999996</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" s="1">
-        <v>2.7591000000000001E-2</v>
-      </c>
-      <c r="F51" s="8">
+        <v>0.50015600000000004</v>
+      </c>
+      <c r="F51" s="7">
         <f>B52+B53</f>
-        <v>5.3171340000000002</v>
-      </c>
-      <c r="G51" s="8"/>
+        <v>4.6535530000000005</v>
+      </c>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B52" s="1">
-        <v>2.2515480000000001</v>
+        <v>2.1393610000000001</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" s="1">
-        <v>6.6829999999999997E-3</v>
+        <v>0.15599299999999999</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B53" s="1">
-        <v>3.0655860000000001</v>
+        <v>2.514192</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" s="1">
-        <v>2.2058999999999999E-2</v>
+        <v>0.38035000000000002</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" s="1">
-        <v>0.87753700000000001</v>
+        <v>0.86745300000000003</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" s="1">
-        <v>2.1699999999999999E-4</v>
-      </c>
-      <c r="F54" s="8">
+        <v>8.8819999999999993E-3</v>
+      </c>
+      <c r="F54" s="7">
         <f>B55+B56</f>
-        <v>0.87753700000000001</v>
-      </c>
-      <c r="G54" s="8"/>
+        <v>0.86745300000000003</v>
+      </c>
+      <c r="G54" s="7"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B55" s="1">
-        <v>0.75192899999999996</v>
+        <v>0.74610100000000001</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" s="1">
-        <v>2.12E-4</v>
+        <v>8.4270000000000005E-3</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B56" s="1">
-        <v>0.125608</v>
+        <v>0.121352</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" s="1">
-        <v>1.1400000000000001E-4</v>
+        <v>3.4359999999999998E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
@@ -1748,63 +1745,63 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B59" s="1">
-        <v>12.991099999999999</v>
+        <v>12.7156</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" s="1">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="F59" s="9">
+        <v>0.36030000000000001</v>
+      </c>
+      <c r="F59" s="6">
         <f>B2*B60+B3*B61</f>
-        <v>12.991147889999999</v>
-      </c>
-      <c r="G59" s="9"/>
+        <v>12.731477509999999</v>
+      </c>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B60" s="1">
-        <v>11.994899999999999</v>
+        <v>11.9198</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" s="1">
-        <v>8.5000000000000006E-3</v>
+        <v>0.2898</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B61" s="1">
-        <v>18.956800000000001</v>
+        <v>17.591899999999999</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" s="1">
-        <v>5.9200000000000003E-2</v>
+        <v>1.1220000000000001</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F42:G42"/>
     <mergeCell ref="F59:G59"/>
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="F51:G51"/>
     <mergeCell ref="F54:G54"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F42:G42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
